--- a/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
+++ b/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
@@ -249,19 +249,19 @@
   </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="D37 D27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
+++ b/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
@@ -255,13 +255,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
+++ b/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
@@ -249,7 +249,7 @@
   </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>

--- a/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
+++ b/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
@@ -255,13 +255,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
+++ b/new_classification_db/N13 - SUSPENDED HEARINGS.xlsx
@@ -255,13 +255,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
